--- a/Perfomance_Usuario.XLSX
+++ b/Perfomance_Usuario.XLSX
@@ -25,61 +25,61 @@
     <t>Daniela Fernandes</t>
   </si>
   <si>
+    <t>Adriana Hunhoff</t>
+  </si>
+  <si>
+    <t>Natalia Farias</t>
+  </si>
+  <si>
+    <t>Luana Umpierre</t>
+  </si>
+  <si>
+    <t>Nicolas Silva</t>
+  </si>
+  <si>
     <t>Vania Fagundes</t>
   </si>
   <si>
-    <t>Nicolas Silva</t>
-  </si>
-  <si>
-    <t>Natalia Farias</t>
-  </si>
-  <si>
-    <t>Adriana Hunhoff</t>
-  </si>
-  <si>
-    <t>Luana Umpierre</t>
+    <t>Carlla Bo</t>
+  </si>
+  <si>
+    <t>Julio Acauan</t>
   </si>
   <si>
     <t>Josue Alos</t>
   </si>
   <si>
+    <t>Alexia Pereira</t>
+  </si>
+  <si>
+    <t>Daniel Machado</t>
+  </si>
+  <si>
+    <t>Brenda Pereira</t>
+  </si>
+  <si>
     <t>Amanda Bernardes</t>
   </si>
   <si>
+    <t>Dominique Daudt</t>
+  </si>
+  <si>
+    <t>Eduarda Santos</t>
+  </si>
+  <si>
+    <t>Michele Mattidorff</t>
+  </si>
+  <si>
+    <t>Jonathan Cardoso</t>
+  </si>
+  <si>
+    <t>Gabriel Wolff</t>
+  </si>
+  <si>
+    <t>Gabriel Winter</t>
+  </si>
+  <si>
     <t>Igor Martins</t>
-  </si>
-  <si>
-    <t>Daniel Machado</t>
-  </si>
-  <si>
-    <t>Alexia Pereira</t>
-  </si>
-  <si>
-    <t>Carlla Bo</t>
-  </si>
-  <si>
-    <t>Julio Acauan</t>
-  </si>
-  <si>
-    <t>Brenda Pereira</t>
-  </si>
-  <si>
-    <t>Dominique Daudt</t>
-  </si>
-  <si>
-    <t>Eduarda Santos</t>
-  </si>
-  <si>
-    <t>Michele Mattidorff</t>
-  </si>
-  <si>
-    <t>Jonathan Cardoso</t>
-  </si>
-  <si>
-    <t>Gabriel Wolff</t>
-  </si>
-  <si>
-    <t>Gabriel Winter</t>
   </si>
   <si>
     <t>Brenda Fossa</t>
@@ -542,31 +542,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>150</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -574,31 +574,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="2">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
       <c r="J3" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -606,31 +606,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G4" s="2">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
       <c r="J4" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -641,28 +641,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -670,31 +670,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -702,31 +702,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -734,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -743,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -766,7 +766,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -775,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G9" s="2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9" s="2">
         <v>41</v>
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -807,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -830,31 +830,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
       <c r="J11" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1278,31 +1278,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C25" s="4">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D25" s="4">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E25" s="4">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F25" s="4">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G25" s="4">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J25" s="4">
-        <v>584</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/Perfomance_Usuario.XLSX
+++ b/Perfomance_Usuario.XLSX
@@ -19,64 +19,64 @@
     <t>Aline Castro</t>
   </si>
   <si>
+    <t>Adriana Hunhoff</t>
+  </si>
+  <si>
+    <t>Natalia Farias</t>
+  </si>
+  <si>
+    <t>Vania Fagundes</t>
+  </si>
+  <si>
+    <t>Nicolas Silva</t>
+  </si>
+  <si>
+    <t>Luana Umpierre</t>
+  </si>
+  <si>
+    <t>Carlla Bo</t>
+  </si>
+  <si>
+    <t>Julio Acauan</t>
+  </si>
+  <si>
+    <t>Josue Alos</t>
+  </si>
+  <si>
+    <t>Gabriel Winter</t>
+  </si>
+  <si>
+    <t>Alexia Pereira</t>
+  </si>
+  <si>
+    <t>Daniela Fernandes</t>
+  </si>
+  <si>
+    <t>Daniel Machado</t>
+  </si>
+  <si>
+    <t>Brenda Pereira</t>
+  </si>
+  <si>
+    <t>Amanda Bernardes</t>
+  </si>
+  <si>
+    <t>Dominique Daudt</t>
+  </si>
+  <si>
+    <t>Eduarda Santos</t>
+  </si>
+  <si>
+    <t>Michele Mattidorff</t>
+  </si>
+  <si>
+    <t>Jonathan Cardoso</t>
+  </si>
+  <si>
+    <t>Gabriel Wolff</t>
+  </si>
+  <si>
     <t>Tamires Teixeira</t>
-  </si>
-  <si>
-    <t>Daniela Fernandes</t>
-  </si>
-  <si>
-    <t>Adriana Hunhoff</t>
-  </si>
-  <si>
-    <t>Natalia Farias</t>
-  </si>
-  <si>
-    <t>Luana Umpierre</t>
-  </si>
-  <si>
-    <t>Nicolas Silva</t>
-  </si>
-  <si>
-    <t>Vania Fagundes</t>
-  </si>
-  <si>
-    <t>Carlla Bo</t>
-  </si>
-  <si>
-    <t>Julio Acauan</t>
-  </si>
-  <si>
-    <t>Josue Alos</t>
-  </si>
-  <si>
-    <t>Alexia Pereira</t>
-  </si>
-  <si>
-    <t>Daniel Machado</t>
-  </si>
-  <si>
-    <t>Brenda Pereira</t>
-  </si>
-  <si>
-    <t>Amanda Bernardes</t>
-  </si>
-  <si>
-    <t>Dominique Daudt</t>
-  </si>
-  <si>
-    <t>Eduarda Santos</t>
-  </si>
-  <si>
-    <t>Michele Mattidorff</t>
-  </si>
-  <si>
-    <t>Jonathan Cardoso</t>
-  </si>
-  <si>
-    <t>Gabriel Wolff</t>
-  </si>
-  <si>
-    <t>Gabriel Winter</t>
   </si>
   <si>
     <t>Igor Martins</t>
@@ -542,31 +542,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>107</v>
+      </c>
+      <c r="E2" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2">
-        <v>85</v>
-      </c>
-      <c r="E2" s="2">
-        <v>9</v>
-      </c>
       <c r="F2" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -574,31 +574,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -606,31 +606,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
       <c r="J4" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -638,31 +638,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="2">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -670,31 +670,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -702,7 +702,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -711,22 +711,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -734,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -766,7 +766,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -807,22 +807,22 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -862,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1278,31 +1278,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C25" s="4">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D25" s="4">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="E25" s="4">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="F25" s="4">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="G25" s="4">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H25" s="4">
         <v>2</v>
       </c>
       <c r="I25" s="4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J25" s="4">
-        <v>553</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/Perfomance_Usuario.XLSX
+++ b/Perfomance_Usuario.XLSX
@@ -19,67 +19,67 @@
     <t>Aline Castro</t>
   </si>
   <si>
+    <t>Tamires Teixeira</t>
+  </si>
+  <si>
+    <t>Vania Fagundes</t>
+  </si>
+  <si>
+    <t>Natalia Farias</t>
+  </si>
+  <si>
+    <t>Daniela Fernandes</t>
+  </si>
+  <si>
+    <t>Luana Umpierre</t>
+  </si>
+  <si>
+    <t>Dominique Daudt</t>
+  </si>
+  <si>
+    <t>Nicolas Silva</t>
+  </si>
+  <si>
     <t>Adriana Hunhoff</t>
   </si>
   <si>
-    <t>Natalia Farias</t>
-  </si>
-  <si>
-    <t>Vania Fagundes</t>
-  </si>
-  <si>
-    <t>Nicolas Silva</t>
-  </si>
-  <si>
-    <t>Luana Umpierre</t>
-  </si>
-  <si>
     <t>Carlla Bo</t>
   </si>
   <si>
+    <t>Daniel Machado</t>
+  </si>
+  <si>
+    <t>Igor Martins</t>
+  </si>
+  <si>
+    <t>Alexia Pereira</t>
+  </si>
+  <si>
     <t>Julio Acauan</t>
   </si>
   <si>
+    <t>Brenda Pereira</t>
+  </si>
+  <si>
+    <t>Amanda Bernardes</t>
+  </si>
+  <si>
+    <t>Eduarda Santos</t>
+  </si>
+  <si>
+    <t>Michele Mattidorff</t>
+  </si>
+  <si>
+    <t>Jonathan Cardoso</t>
+  </si>
+  <si>
+    <t>Gabriel Wolff</t>
+  </si>
+  <si>
     <t>Josue Alos</t>
   </si>
   <si>
     <t>Gabriel Winter</t>
-  </si>
-  <si>
-    <t>Alexia Pereira</t>
-  </si>
-  <si>
-    <t>Daniela Fernandes</t>
-  </si>
-  <si>
-    <t>Daniel Machado</t>
-  </si>
-  <si>
-    <t>Brenda Pereira</t>
-  </si>
-  <si>
-    <t>Amanda Bernardes</t>
-  </si>
-  <si>
-    <t>Dominique Daudt</t>
-  </si>
-  <si>
-    <t>Eduarda Santos</t>
-  </si>
-  <si>
-    <t>Michele Mattidorff</t>
-  </si>
-  <si>
-    <t>Jonathan Cardoso</t>
-  </si>
-  <si>
-    <t>Gabriel Wolff</t>
-  </si>
-  <si>
-    <t>Tamires Teixeira</t>
-  </si>
-  <si>
-    <t>Igor Martins</t>
   </si>
   <si>
     <t>Brenda Fossa</t>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -574,31 +574,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
         <v>19</v>
       </c>
-      <c r="F3" s="2">
-        <v>4</v>
-      </c>
       <c r="G3" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -606,31 +606,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
       <c r="J4" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -638,31 +638,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>6</v>
-      </c>
       <c r="J5" s="2">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -673,16 +673,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="2">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -702,7 +702,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -711,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -734,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" s="2">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -807,22 +807,22 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G10" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1278,31 +1278,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D25" s="4">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="E25" s="4">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="F25" s="4">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="G25" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H25" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="4">
         <v>11</v>
       </c>
       <c r="J25" s="4">
-        <v>439</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/Perfomance_Usuario.XLSX
+++ b/Perfomance_Usuario.XLSX
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,67 +16,67 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
+    <t>Tamires Teixeira</t>
+  </si>
+  <si>
+    <t>Natalia Farias</t>
+  </si>
+  <si>
     <t>Aline Castro</t>
   </si>
   <si>
-    <t>Tamires Teixeira</t>
+    <t>Luana Umpierre</t>
+  </si>
+  <si>
+    <t>Daniela Fernandes</t>
   </si>
   <si>
     <t>Vania Fagundes</t>
   </si>
   <si>
-    <t>Natalia Farias</t>
-  </si>
-  <si>
-    <t>Daniela Fernandes</t>
-  </si>
-  <si>
-    <t>Luana Umpierre</t>
+    <t>Nicolas Silva</t>
+  </si>
+  <si>
+    <t>Carlla Bo</t>
   </si>
   <si>
     <t>Dominique Daudt</t>
   </si>
   <si>
-    <t>Nicolas Silva</t>
-  </si>
-  <si>
     <t>Adriana Hunhoff</t>
   </si>
   <si>
-    <t>Carlla Bo</t>
+    <t>Amanda Bernardes</t>
+  </si>
+  <si>
+    <t>Josue Alos</t>
+  </si>
+  <si>
+    <t>Igor Martins</t>
+  </si>
+  <si>
+    <t>Alexia Pereira</t>
+  </si>
+  <si>
+    <t>Michele Mattidorff</t>
+  </si>
+  <si>
+    <t>Julio Acauan</t>
   </si>
   <si>
     <t>Daniel Machado</t>
   </si>
   <si>
-    <t>Igor Martins</t>
-  </si>
-  <si>
-    <t>Alexia Pereira</t>
-  </si>
-  <si>
-    <t>Julio Acauan</t>
-  </si>
-  <si>
     <t>Brenda Pereira</t>
   </si>
   <si>
-    <t>Amanda Bernardes</t>
-  </si>
-  <si>
     <t>Eduarda Santos</t>
   </si>
   <si>
-    <t>Michele Mattidorff</t>
-  </si>
-  <si>
     <t>Jonathan Cardoso</t>
   </si>
   <si>
     <t>Gabriel Wolff</t>
-  </si>
-  <si>
-    <t>Josue Alos</t>
   </si>
   <si>
     <t>Gabriel Winter</t>
@@ -200,6 +200,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -542,31 +547,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -574,31 +579,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" s="2">
         <v>2</v>
       </c>
       <c r="J3" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -606,19 +611,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -627,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -638,31 +643,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -670,16 +675,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2">
         <v>20</v>
@@ -694,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="2">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -702,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -711,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -723,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="2">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -734,7 +739,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -743,10 +748,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -755,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -775,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -790,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -807,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -819,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -839,10 +844,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -854,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -871,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -886,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -903,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -918,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -935,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -950,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -958,7 +963,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -970,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -982,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1011,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1278,31 +1283,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C25" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25" s="4">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="E25" s="4">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F25" s="4">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="G25" s="4">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H25" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I25" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J25" s="4">
-        <v>583</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/Perfomance_Usuario.XLSX
+++ b/Perfomance_Usuario.XLSX
@@ -22,64 +22,64 @@
     <t>Natalia Farias</t>
   </si>
   <si>
+    <t>Daniela Fernandes</t>
+  </si>
+  <si>
+    <t>Vania Fagundes</t>
+  </si>
+  <si>
+    <t>Luana Umpierre</t>
+  </si>
+  <si>
+    <t>Nicolas Silva</t>
+  </si>
+  <si>
+    <t>Adriana Hunhoff</t>
+  </si>
+  <si>
+    <t>Carlla Bo</t>
+  </si>
+  <si>
+    <t>Dominique Daudt</t>
+  </si>
+  <si>
+    <t>Josue Alos</t>
+  </si>
+  <si>
+    <t>Igor Martins</t>
+  </si>
+  <si>
+    <t>Alexia Pereira</t>
+  </si>
+  <si>
+    <t>Gabriel Winter</t>
+  </si>
+  <si>
     <t>Aline Castro</t>
   </si>
   <si>
-    <t>Luana Umpierre</t>
-  </si>
-  <si>
-    <t>Daniela Fernandes</t>
-  </si>
-  <si>
-    <t>Vania Fagundes</t>
-  </si>
-  <si>
-    <t>Nicolas Silva</t>
-  </si>
-  <si>
-    <t>Carlla Bo</t>
-  </si>
-  <si>
-    <t>Dominique Daudt</t>
-  </si>
-  <si>
-    <t>Adriana Hunhoff</t>
+    <t>Julio Acauan</t>
+  </si>
+  <si>
+    <t>Daniel Machado</t>
+  </si>
+  <si>
+    <t>Brenda Pereira</t>
   </si>
   <si>
     <t>Amanda Bernardes</t>
   </si>
   <si>
-    <t>Josue Alos</t>
-  </si>
-  <si>
-    <t>Igor Martins</t>
-  </si>
-  <si>
-    <t>Alexia Pereira</t>
+    <t>Eduarda Santos</t>
   </si>
   <si>
     <t>Michele Mattidorff</t>
   </si>
   <si>
-    <t>Julio Acauan</t>
-  </si>
-  <si>
-    <t>Daniel Machado</t>
-  </si>
-  <si>
-    <t>Brenda Pereira</t>
-  </si>
-  <si>
-    <t>Eduarda Santos</t>
-  </si>
-  <si>
     <t>Jonathan Cardoso</t>
   </si>
   <si>
     <t>Gabriel Wolff</t>
-  </si>
-  <si>
-    <t>Gabriel Winter</t>
   </si>
   <si>
     <t>Brenda Fossa</t>
@@ -547,31 +547,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2">
         <v>12</v>
-      </c>
-      <c r="G2" s="2">
-        <v>8</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -579,31 +579,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
         <v>18</v>
       </c>
-      <c r="E3" s="2">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2">
-        <v>27</v>
-      </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -611,19 +611,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -632,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -643,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -652,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="2">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -675,31 +675,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -728,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -739,7 +739,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -748,10 +748,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -803,7 +803,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -812,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -844,10 +844,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -908,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1283,31 +1283,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D25" s="4">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E25" s="4">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F25" s="4">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="G25" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H25" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I25" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J25" s="4">
-        <v>569</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/Perfomance_Usuario.XLSX
+++ b/Perfomance_Usuario.XLSX
@@ -495,7 +495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>

--- a/Perfomance_Usuario.XLSX
+++ b/Perfomance_Usuario.XLSX
@@ -9,113 +9,123 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
+    <t>Nome completo</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Lote</t>
+  </si>
+  <si>
+    <t>Doc. Lote</t>
+  </si>
+  <si>
+    <t>NF Material</t>
+  </si>
+  <si>
+    <t>NF Serviço</t>
+  </si>
+  <si>
+    <t>Fundo Fixo</t>
+  </si>
+  <si>
+    <t>Adiantamento</t>
+  </si>
+  <si>
+    <t>Reembolso</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>Aline Castro</t>
+  </si>
+  <si>
+    <t>Natalia Farias</t>
+  </si>
+  <si>
+    <t>Daniela Fernandes</t>
+  </si>
+  <si>
+    <t>Vania Fagundes</t>
+  </si>
+  <si>
+    <t>Luana Umpierre</t>
+  </si>
+  <si>
+    <t>Nicolas Silva</t>
+  </si>
+  <si>
+    <t>Carlla Bo</t>
+  </si>
+  <si>
     <t>Tamires Teixeira</t>
   </si>
   <si>
-    <t>Natalia Farias</t>
-  </si>
-  <si>
-    <t>Daniela Fernandes</t>
-  </si>
-  <si>
-    <t>Vania Fagundes</t>
-  </si>
-  <si>
-    <t>Luana Umpierre</t>
-  </si>
-  <si>
-    <t>Nicolas Silva</t>
+    <t>Dominique Daudt</t>
   </si>
   <si>
     <t>Adriana Hunhoff</t>
   </si>
   <si>
-    <t>Carlla Bo</t>
-  </si>
-  <si>
-    <t>Dominique Daudt</t>
+    <t>Igor Martins</t>
   </si>
   <si>
     <t>Josue Alos</t>
   </si>
   <si>
-    <t>Igor Martins</t>
+    <t>Daniel Machado</t>
   </si>
   <si>
     <t>Alexia Pereira</t>
   </si>
   <si>
+    <t>Julio Acauan</t>
+  </si>
+  <si>
+    <t>Brenda Pereira</t>
+  </si>
+  <si>
+    <t>Amanda Bernardes</t>
+  </si>
+  <si>
+    <t>Eduarda Santos</t>
+  </si>
+  <si>
+    <t>Michele Mattidorff</t>
+  </si>
+  <si>
+    <t>Jonathan Cardoso</t>
+  </si>
+  <si>
+    <t>Gabriel Wolff</t>
+  </si>
+  <si>
     <t>Gabriel Winter</t>
   </si>
   <si>
-    <t>Aline Castro</t>
-  </si>
-  <si>
-    <t>Julio Acauan</t>
-  </si>
-  <si>
-    <t>Daniel Machado</t>
-  </si>
-  <si>
-    <t>Brenda Pereira</t>
-  </si>
-  <si>
-    <t>Amanda Bernardes</t>
-  </si>
-  <si>
-    <t>Eduarda Santos</t>
-  </si>
-  <si>
-    <t>Michele Mattidorff</t>
-  </si>
-  <si>
-    <t>Jonathan Cardoso</t>
-  </si>
-  <si>
-    <t>Gabriel Wolff</t>
-  </si>
-  <si>
     <t>Brenda Fossa</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Nome completo</t>
-  </si>
-  <si>
-    <t>Prioridade</t>
-  </si>
-  <si>
-    <t>Lote</t>
-  </si>
-  <si>
-    <t>Doc. Lote</t>
-  </si>
-  <si>
-    <t>NF Material</t>
-  </si>
-  <si>
-    <t>NF Serviço</t>
-  </si>
-  <si>
-    <t>Fundo Fixo</t>
-  </si>
-  <si>
-    <t>Adiantamento</t>
-  </si>
-  <si>
-    <t>Reembolso</t>
-  </si>
-  <si>
-    <t>Soma</t>
   </si>
 </sst>
 </file>
@@ -203,6 +213,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -495,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -514,118 +527,118 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
-        <v>66</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
       <c r="J3" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -634,47 +647,47 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>43</v>
-      </c>
-      <c r="F5" s="2">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>4</v>
-      </c>
       <c r="J5" s="2">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -686,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -706,10 +719,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -718,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -730,15 +743,15 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -753,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -765,44 +778,44 @@
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="2">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -814,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -826,15 +839,15 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -846,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -861,12 +874,12 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -878,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -893,12 +906,12 @@
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -910,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -925,28 +938,28 @@
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
       <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
@@ -957,12 +970,12 @@
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -994,7 +1007,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -1026,7 +1039,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -1058,7 +1071,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -1090,7 +1103,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -1122,7 +1135,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -1154,7 +1167,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -1186,7 +1199,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1218,7 +1231,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -1250,7 +1263,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -1282,34 +1295,34 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B25" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="4">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D25" s="4">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="E25" s="4">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="F25" s="4">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G25" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="4">
         <v>9</v>
       </c>
       <c r="J25" s="4">
-        <v>529</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
